--- a/.이은준/서울 시 코로나19 거리두기 단계.xlsx
+++ b/.이은준/서울 시 코로나19 거리두기 단계.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysw53\Desktop\대딩\1학년\2학기\데이터분석 경진대회\data-analysis\참고 데이터\엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysw53\Desktop\대딩\1학년\2학기\데이터분석 경진대회\data-analysis\.이은준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DFBB8-A4B8-4ACF-ADA1-C7EDF6828C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA0EA6D-887B-4598-9A4E-1248E4BBCEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09C36045-2049-4A85-B975-62BA997F8BE6}"/>
   </bookViews>
